--- a/submit/report/卒業研究/設計書/画面遷移図.xlsx
+++ b/submit/report/卒業研究/設計書/画面遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24617"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,22 +19,30 @@
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>修正日</t>
+    <t>画面遷移図</t>
     <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
+      <t>ガメン</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -42,6 +50,26 @@
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者</t>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -60,29 +88,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>修正者</t>
+    <t>修正日</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面遷移図</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>センイズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タスク管理</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -214,30 +225,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,15 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -936,44 +938,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="BQ20" sqref="BQ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.44140625" style="1"/>
+    <col min="1" max="16384" width="2.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
@@ -989,13 +991,13 @@
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="12"/>
-      <c r="AJ1" s="15" t="s">
-        <v>0</v>
+      <c r="AJ1" s="8" t="s">
+        <v>3</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
       <c r="AQ1" s="9"/>
@@ -1004,7 +1006,7 @@
       <c r="AT1" s="9"/>
       <c r="AU1" s="9"/>
       <c r="AV1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
@@ -1018,28 +1020,28 @@
       <c r="BF1" s="9"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14" t="s">
-        <v>3</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="10"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
@@ -1056,7 +1058,7 @@
       <c r="AH2" s="11"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
@@ -1070,7 +1072,7 @@
       <c r="AT2" s="9"/>
       <c r="AU2" s="9"/>
       <c r="AV2" s="8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
@@ -1083,424 +1085,34 @@
       <c r="BE2" s="9"/>
       <c r="BF2" s="9"/>
     </row>
-    <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:58" ht="15" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:58" ht="15" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
     <row r="6" spans="1:58" ht="15" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:58" ht="15" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:58" ht="15" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:58" ht="15" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:58" ht="15" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:58" ht="15" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:58" ht="15" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:58" ht="15" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:58" ht="15" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:58" ht="15" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:58" ht="15" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:58" ht="15" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:58" ht="15" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:58" ht="15" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:58" ht="15" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:58" ht="15" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:58" ht="15" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="25" spans="1:58" ht="15" customHeight="1">
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
-      <c r="AX25" s="7"/>
-      <c r="AY25" s="7"/>
-      <c r="AZ25" s="7"/>
-      <c r="BA25" s="7"/>
-      <c r="BB25" s="7"/>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AJ2:AN2"/>
     <mergeCell ref="AV1:AZ1"/>
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA1:BF1"/>
@@ -1509,6 +1121,11 @@
     <mergeCell ref="U2:AI2"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
